--- a/CookieChecker/Chrome-CookiesAccept.xlsx
+++ b/CookieChecker/Chrome-CookiesAccept.xlsx
@@ -1,37 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyriakiBousiou\Desktop\CookieChecker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e82331\Desktop\Git\browsertesting\CookieChecker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B90ADB1B-8205-4692-820B-6DC13FE7195D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="3540" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10755" windowHeight="4935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
   <si>
     <t>Domain</t>
   </si>
@@ -75,6 +68,9 @@
     <t>https://www.nbg.gr/el/retail/housing-loans/Calculator/</t>
   </si>
   <si>
+    <t>NBGPublicSite</t>
+  </si>
+  <si>
     <t>https://www.nbg.gr/el/iban</t>
   </si>
   <si>
@@ -115,6 +111,9 @@
   </si>
   <si>
     <t>_gat_UA-141800760-1</t>
+  </si>
+  <si>
+    <t>ASP.NET_SessionId</t>
   </si>
   <si>
     <t>preloader_shown</t>
@@ -174,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,7 +239,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -252,7 +251,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -269,9 +268,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -299,31 +298,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -351,23 +333,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -645,24 +610,27 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -682,7 +650,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -697,12 +665,12 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -722,7 +690,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -742,7 +710,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -762,7 +730,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -782,7 +750,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -802,7 +770,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -822,7 +790,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -842,7 +810,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -862,56 +830,44 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -928,7 +884,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -945,7 +901,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -962,7 +918,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -970,7 +926,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -978,7 +934,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -989,7 +945,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -997,7 +953,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1005,7 +961,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1013,18 +969,18 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -1044,7 +1000,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1052,7 +1008,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1060,7 +1016,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1068,13 +1024,13 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/CookieChecker/Chrome-CookiesAccept.xlsx
+++ b/CookieChecker/Chrome-CookiesAccept.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10755" windowHeight="4935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/CookieChecker/Chrome-CookiesAccept.xlsx
+++ b/CookieChecker/Chrome-CookiesAccept.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10755" windowHeight="4935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="48">
   <si>
     <t>Domain</t>
   </si>
@@ -833,7 +833,19 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">

--- a/CookieChecker/Chrome-CookiesAccept.xlsx
+++ b/CookieChecker/Chrome-CookiesAccept.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10755" windowHeight="4935"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="10755" windowHeight="4935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="48">
   <si>
     <t>Domain</t>
   </si>
@@ -485,11 +485,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -696,16 +705,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -808,7 +817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -828,7 +837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -848,12 +857,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -865,19 +874,16 @@
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -894,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -911,7 +917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -928,7 +934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -936,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -944,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -955,7 +961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -963,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -971,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -979,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -990,7 +996,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1010,7 +1016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
